--- a/Excel Data/Kyc_Amendment_Account.xlsx
+++ b/Excel Data/Kyc_Amendment_Account.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>value:1:1:1</t>
   </si>
@@ -100,19 +100,67 @@
   </si>
   <si>
     <t>Salaried</t>
+  </si>
+  <si>
+    <t>Acc_ID</t>
+  </si>
+  <si>
+    <t>Mname</t>
+  </si>
+  <si>
+    <t>IDType</t>
+  </si>
+  <si>
+    <t>IDNum</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>ID-N</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>IncomeSource</t>
+  </si>
+  <si>
+    <t>IncomeAmount</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>5M</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>Area no 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF067D17"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,8 +183,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,9 +491,11 @@
     <col min="15" max="15" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,8 +547,35 @@
       <c r="Q1" t="s">
         <v>23</v>
       </c>
+      <c r="R1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1007240180</v>
       </c>
@@ -545,6 +626,33 @@
       </c>
       <c r="Q2" t="s">
         <v>26</v>
+      </c>
+      <c r="R2">
+        <v>1007606991</v>
+      </c>
+      <c r="S2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="2">
+        <v>4596785412365</v>
+      </c>
+      <c r="V2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Data/Kyc_Amendment_Account.xlsx
+++ b/Excel Data/Kyc_Amendment_Account.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Kyc_Amendment_Account" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Kyc_Amendment_Account" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
   <si>
     <t>value:1:1:1</t>
   </si>
@@ -471,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,6 +658,199 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1007240180</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>14</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <v>10000</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2">
+        <v>1000</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2">
+        <v>10000</v>
+      </c>
+      <c r="P2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2">
+        <v>1007606991</v>
+      </c>
+      <c r="S2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="2">
+        <v>4596785412365</v>
+      </c>
+      <c r="V2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel Data/Kyc_Amendment_Account.xlsx
+++ b/Excel Data/Kyc_Amendment_Account.xlsx
@@ -472,9 +472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
